--- a/ResultadoEleicoesDistritos/CASTELO BRANCO_SERTÃ.xlsx
+++ b/ResultadoEleicoesDistritos/CASTELO BRANCO_SERTÃ.xlsx
@@ -597,64 +597,64 @@
         <v>3962</v>
       </c>
       <c r="H2" t="n">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="I2" t="n">
-        <v>365</v>
+        <v>390</v>
       </c>
       <c r="J2" t="n">
-        <v>1631</v>
+        <v>1668</v>
       </c>
       <c r="K2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L2" t="n">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M2" t="n">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R2" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S2" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="T2" t="n">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="U2" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="V2" t="n">
-        <v>2571</v>
+        <v>2530</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2473</v>
+      </c>
+      <c r="Y2" t="n">
         <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>2498</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>5</v>
       </c>
       <c r="Z2" t="n">
         <v>41</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
